--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -13,8 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="ARP_design" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ARP_design!$1:$1</definedName>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="217">
   <si>
     <t>Designator</t>
   </si>
@@ -68,36 +66,9 @@
     <t>J1</t>
   </si>
   <si>
-    <t xml:space="preserve">USB4800-03-A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB Connectors USB2.0 Type C Rcpt, SMT, Hrz, 3.5mm elevated, 16 Pin </t>
-  </si>
-  <si>
-    <t>1,73</t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/GCT/USB4800-03-A?qs=vvQtp7zwQdMkfG8vViEZoQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/ABRACON/ABM3-8.000MHZ-D2Y-T?qs=ihRgKfnEsN4giUXjc3yS1g%3D%3D</t>
-  </si>
-  <si>
     <t>XTAL1</t>
   </si>
   <si>
-    <t xml:space="preserve">ABM3-8.000MHZ-D2Y-T </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystals 8.0 MHZ 18PF </t>
-  </si>
-  <si>
-    <t>0,557</t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/LM324NSR?qs=VBduBm9rCJQcjq4eh95DkA%3D%3D</t>
-  </si>
-  <si>
     <t>U1, U2</t>
   </si>
   <si>
@@ -107,9 +78,6 @@
     <t xml:space="preserve">Operational Amplifiers - Op Amps Quad General-Purpose Op Amp </t>
   </si>
   <si>
-    <t>0,501</t>
-  </si>
-  <si>
     <t>2,76</t>
   </si>
   <si>
@@ -122,36 +90,12 @@
     <t>https://eu.mouser.com/ProductDetail/Pulse-Electronics/WMRR138F-0?qs=w%2Fv1CP2dgqrskzxdeNMGXQ%3D%3D</t>
   </si>
   <si>
-    <t>https://eu.mouser.com/ProductDetail/Cree-LED/UHD1110-FKA-CL1A13r3q1BBQFMF3?qs=1mbolxNpo8fgJCAUZnlr7w%3D%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UHD1110-FKA-CL1A13r3q1BBQFMF3 </t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
     <t>D10</t>
   </si>
   <si>
-    <t>Standard LEDs - SMD RGB SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTCG103JX103DTDS </t>
-  </si>
-  <si>
     <t>R41</t>
   </si>
   <si>
-    <t xml:space="preserve">NTC (Negative Temperature Coefficient) Thermistors 0402 10K OHM 0.5% NTC AEC-Q200 125C </t>
-  </si>
-  <si>
-    <t>0,378</t>
-  </si>
-  <si>
-    <t>https://eu.mouser.com/ProductDetail/TDK/NTCG103JX103DTDS?qs=cNoPOocMWw0mnAOC7PMXMw%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.lcsc.com/product-detail/MOSFETs_onsemi-BSS123LT1G_C78755.html</t>
   </si>
   <si>
@@ -585,6 +529,150 @@
   </si>
   <si>
     <t>0,0052</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/USB-Connectors_G-Switch-GT-USB-7010AN_C963370.html</t>
+  </si>
+  <si>
+    <t>GT-USB-7010AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB 2.0 5A 1 Surface Mount，Right Angle 16P Female -40℃~+85℃ Gold High Conductivity Copper Type-C SMD USB Connectors ROHS </t>
+  </si>
+  <si>
+    <t>0,1606</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Crystals_YXC-Crystal-Oscillators-X50328MSB2GI_C115962.html</t>
+  </si>
+  <si>
+    <t>X50328MSB2GI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8MHz 贴片晶振 20pF ±10ppm ±20ppm SMD5032 Crystals ROHS </t>
+  </si>
+  <si>
+    <t>0,1872</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Operational-Amplifier_Texas-Instruments-LM324NSR_C2057487.html</t>
+  </si>
+  <si>
+    <t>0,3436</t>
+  </si>
+  <si>
+    <t>NCP15XH103F03RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10kΩ 310uA 100mW ±1% 3380K ±1% 0402 NTC Thermistors ROHS </t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/NTC-Thermistors_Murata-Electronics-NCP15XH103F03RC_C77131.html</t>
+  </si>
+  <si>
+    <t>0,0108</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/RGB-LEDs_Lite-On-LTST-C19HE1WT_C458749.html</t>
+  </si>
+  <si>
+    <t>LTST-C19HE1WT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0606 RGB LEDs ROHS </t>
+  </si>
+  <si>
+    <t>0,0645</t>
+  </si>
+  <si>
+    <t>6,3uH</t>
+  </si>
+  <si>
+    <t>12,5uH</t>
+  </si>
+  <si>
+    <t>15uH</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>Sorted by number of coils in stock</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Wireless-Charging-Coils_CND-tek-YX-A11-R501053-GF0835-BEIJIAO_C22381711.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireless Charging Coils ROHS </t>
+  </si>
+  <si>
+    <t>YX-A11-R501053-GF0835(BEIJIAO)</t>
+  </si>
+  <si>
+    <t>0603B473K500NT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50V 47nF X7R ±10% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS </t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_FH-Guangdong-Fenghua-Advanced-Tech-0603B473K500NT_C285123.html</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Wireless-Charging-Coils_CND-tek-YX-A11-R500800-R0890_C3003210.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmitter 15uH ±10% - Wireless Charging Coils ROHS </t>
+  </si>
+  <si>
+    <t>YX-A11-R500800-R0890</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4, C23</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_FH-Guangdong-Fenghua-Advanced-Tech-0603B223K500NT_C77571.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50V 22nF X7R ±10% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS </t>
+  </si>
+  <si>
+    <t>0603B223K500NT</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Wireless-Charging-Coils_CND-tek-YX-A11-R451053-R0725_C424421.html</t>
+  </si>
+  <si>
+    <t>0,3528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmitter 6.3uH 75mΩ ±10% - Wireless Charging Coils ROHS </t>
+  </si>
+  <si>
+    <t>YX-A11-R451053-R0725</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0603KRX7R9BB563_C282072.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50V 56nF X7R ±10% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS </t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Stock: 247 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Stock: 499 </t>
+  </si>
+  <si>
+    <t>In Stock: 762+514+509</t>
+  </si>
+  <si>
+    <t>In Stock 4.566 (Mouser only)</t>
   </si>
 </sst>
 </file>
@@ -665,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -693,6 +781,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -998,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,925 +1155,834 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F25" si="0">E3*D3</f>
-        <v>1.73</v>
+        <f t="shared" ref="F3:F5" si="0">E3*D3</f>
+        <v>0.16059999999999999</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>0.55700000000000005</v>
+        <v>0.18720000000000001</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>1.002</v>
+        <v>0.68720000000000003</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>2.76</v>
+        <f t="shared" ref="F6:F24" si="1">E6*D6</f>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.378</v>
+        <f t="shared" si="1"/>
+        <v>0.28720000000000001</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.28720000000000001</v>
+        <f t="shared" si="1"/>
+        <v>5.7600000000000005E-2</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>5.7600000000000005E-2</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D12" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.5E-3</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D13" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>73</v>
+        <v>56</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D15" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>5.9999999999999995E-4</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D17" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D18" s="4">
         <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>4.1999999999999997E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="4">
-        <v>7</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="4">
-        <v>8</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>102</v>
+      <c r="C21" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="0"/>
-        <v>5.9999999999999995E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.5E-3</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D24" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D25" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3999999999999998E-3</v>
+        <f t="shared" ref="F25" si="2">E25*D25</f>
+        <v>1.8E-3</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D26" s="4">
         <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" ref="F26:F27" si="1">E26*D26</f>
+        <f t="shared" ref="F26:F36" si="3">E26*D26</f>
         <v>1.8E-3</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="1"/>
-        <v>5.7999999999999996E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D28" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" ref="F28:F54" si="2">E28*D28</f>
-        <v>7.1999999999999998E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D29" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="2"/>
-        <v>1.8E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D30" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="2"/>
-        <v>7.0000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D31" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="2"/>
-        <v>4.7999999999999996E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D32" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>1E-3</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="2"/>
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000004E-4</v>
+        <f t="shared" si="3"/>
+        <v>2E-3</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="4">
-        <v>2</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" s="4">
-        <f t="shared" si="2"/>
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="4">
+      <c r="A36" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="14">
         <v>1</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F37" s="4">
-        <f t="shared" si="2"/>
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D38" s="4">
-        <v>2</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="4">
-        <f t="shared" si="2"/>
-        <v>2E-3</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F39" s="4">
-        <f t="shared" si="2"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D40" s="14">
-        <v>1</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="F40" s="14">
-        <f t="shared" si="2"/>
+      <c r="E36" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="3"/>
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="G40" s="16" t="s">
-        <v>183</v>
+      <c r="G36" s="16" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
+      <c r="A41" s="17" t="s">
+        <v>191</v>
+      </c>
       <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
       <c r="D41" s="18"/>
       <c r="E41" s="19"/>
       <c r="F41" s="18"/>
       <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="C42" s="17"/>
       <c r="D42" s="18"/>
       <c r="E42" s="19"/>
@@ -1991,40 +1990,100 @@
       <c r="G42" s="20"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="20"/>
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="4">
+        <f>E43*D43</f>
+        <v>2.76</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="20"/>
+      <c r="A44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="4">
+        <f>E44*D44</f>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="20"/>
+      <c r="A45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="4">
+        <f>E45*D45</f>
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="20"/>
+      <c r="A46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="4">
+        <f>E46*D46</f>
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
@@ -2036,8 +2095,12 @@
       <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>215</v>
+      </c>
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
       <c r="E48" s="19"/>
@@ -2045,22 +2108,52 @@
       <c r="G48" s="20"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="20"/>
+      <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" ref="F49:F50" si="4">E49*D49</f>
+        <v>0.3528</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="20"/>
+      <c r="A50" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" s="4">
+        <v>5</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="4"/>
+        <v>1.4499999999999999E-2</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
@@ -2068,35 +2161,125 @@
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
       <c r="E51" s="19"/>
-      <c r="F51" s="18"/>
+      <c r="F51" s="19"/>
       <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
+      <c r="A52" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>214</v>
+      </c>
       <c r="C52" s="17"/>
       <c r="D52" s="18"/>
       <c r="E52" s="19"/>
-      <c r="F52" s="18"/>
+      <c r="F52" s="19"/>
       <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="20"/>
+      <c r="A53" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="21">
+        <v>1</v>
+      </c>
+      <c r="E53" s="21">
+        <v>0.84340000000000004</v>
+      </c>
+      <c r="F53" s="4">
+        <f>E53*D53</f>
+        <v>0.84340000000000004</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="20"/>
+      <c r="A54" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="21">
+        <v>5</v>
+      </c>
+      <c r="E54" s="21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F54" s="4">
+        <f>E54*D54</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="21">
+        <v>1</v>
+      </c>
+      <c r="E57" s="21">
+        <v>0.57240000000000002</v>
+      </c>
+      <c r="F57" s="4">
+        <f>E57*D57</f>
+        <v>0.57240000000000002</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="21">
+        <v>4</v>
+      </c>
+      <c r="E58" s="21">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="F58" s="4">
+        <f>E58*D58</f>
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2104,64 +2287,46 @@
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G4" r:id="rId3"/>
     <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G9" r:id="rId8"/>
-    <hyperlink ref="G10" r:id="rId9"/>
-    <hyperlink ref="G11" r:id="rId10"/>
-    <hyperlink ref="G12" r:id="rId11"/>
-    <hyperlink ref="G13" r:id="rId12"/>
-    <hyperlink ref="G14" r:id="rId13"/>
-    <hyperlink ref="G15" r:id="rId14"/>
-    <hyperlink ref="G16" r:id="rId15"/>
-    <hyperlink ref="G17" r:id="rId16"/>
-    <hyperlink ref="G18" r:id="rId17"/>
-    <hyperlink ref="G19" r:id="rId18"/>
-    <hyperlink ref="G20" r:id="rId19"/>
-    <hyperlink ref="G21" r:id="rId20"/>
-    <hyperlink ref="G23" r:id="rId21"/>
-    <hyperlink ref="G24" r:id="rId22"/>
-    <hyperlink ref="G25" r:id="rId23"/>
-    <hyperlink ref="G26" r:id="rId24"/>
-    <hyperlink ref="G37" r:id="rId25"/>
-    <hyperlink ref="G27" r:id="rId26"/>
-    <hyperlink ref="G28" r:id="rId27"/>
-    <hyperlink ref="G31" r:id="rId28"/>
-    <hyperlink ref="G29" r:id="rId29"/>
-    <hyperlink ref="G32" r:id="rId30"/>
-    <hyperlink ref="G34" r:id="rId31"/>
-    <hyperlink ref="G35" r:id="rId32"/>
-    <hyperlink ref="G36" r:id="rId33"/>
-    <hyperlink ref="G38" r:id="rId34"/>
-    <hyperlink ref="G39" r:id="rId35"/>
-    <hyperlink ref="G40" r:id="rId36"/>
+    <hyperlink ref="G43" r:id="rId5"/>
+    <hyperlink ref="G6" r:id="rId6"/>
+    <hyperlink ref="G7" r:id="rId7"/>
+    <hyperlink ref="G8" r:id="rId8"/>
+    <hyperlink ref="G9" r:id="rId9"/>
+    <hyperlink ref="G10" r:id="rId10"/>
+    <hyperlink ref="G11" r:id="rId11"/>
+    <hyperlink ref="G12" r:id="rId12"/>
+    <hyperlink ref="G13" r:id="rId13"/>
+    <hyperlink ref="G14" r:id="rId14"/>
+    <hyperlink ref="G15" r:id="rId15"/>
+    <hyperlink ref="G16" r:id="rId16"/>
+    <hyperlink ref="G17" r:id="rId17"/>
+    <hyperlink ref="G18" r:id="rId18"/>
+    <hyperlink ref="G19" r:id="rId19"/>
+    <hyperlink ref="G20" r:id="rId20"/>
+    <hyperlink ref="G22" r:id="rId21"/>
+    <hyperlink ref="G23" r:id="rId22"/>
+    <hyperlink ref="G24" r:id="rId23"/>
+    <hyperlink ref="G25" r:id="rId24"/>
+    <hyperlink ref="G46" r:id="rId25"/>
+    <hyperlink ref="G44" r:id="rId26"/>
+    <hyperlink ref="G45" r:id="rId27"/>
+    <hyperlink ref="G28" r:id="rId28"/>
+    <hyperlink ref="G26" r:id="rId29"/>
+    <hyperlink ref="G29" r:id="rId30"/>
+    <hyperlink ref="G31" r:id="rId31"/>
+    <hyperlink ref="G32" r:id="rId32"/>
+    <hyperlink ref="G33" r:id="rId33"/>
+    <hyperlink ref="G34" r:id="rId34"/>
+    <hyperlink ref="G35" r:id="rId35"/>
+    <hyperlink ref="G36" r:id="rId36"/>
+    <hyperlink ref="G57" r:id="rId37"/>
+    <hyperlink ref="G58" r:id="rId38"/>
+    <hyperlink ref="G53" r:id="rId39"/>
+    <hyperlink ref="G54" r:id="rId40"/>
+    <hyperlink ref="G49" r:id="rId41"/>
+    <hyperlink ref="G50" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>